--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\Python\Python Formulation\NET Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\BCCOP26TrilateralProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41035433-FDCC-4079-8C86-EC2668E41412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD358DB1-D024-4DFC-A7DE-680B6F2C694D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6BC639D9-110C-4E54-A662-BDDB0F5A7A64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6BC639D9-110C-4E54-A662-BDDB0F5A7A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Period 1" sheetId="1" r:id="rId1"/>
     <sheet name="Period 2" sheetId="3" r:id="rId2"/>
     <sheet name="Period 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Plant Data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
   <si>
     <t>Renewables</t>
   </si>
@@ -71,13 +72,61 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Period 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Gas </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Plant 1</t>
+  </si>
+  <si>
+    <t>Plant 2</t>
+  </si>
+  <si>
+    <t>Plant 3</t>
+  </si>
+  <si>
+    <t>Plant 4</t>
+  </si>
+  <si>
+    <t>Plant 5</t>
+  </si>
+  <si>
+    <t>Plant 6</t>
+  </si>
+  <si>
+    <t>Plant 7</t>
+  </si>
+  <si>
+    <t>Plant 8</t>
+  </si>
+  <si>
+    <t>Period 2</t>
+  </si>
+  <si>
+    <t>Period 3</t>
+  </si>
+  <si>
+    <t>CO2 Load</t>
+  </si>
+  <si>
+    <t>CO2 Limit</t>
+  </si>
+  <si>
+    <t>Retrofit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +142,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -110,16 +177,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,7 +804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239780C0-F108-4561-B71D-2F90B84B33CA}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -777,4 +913,627 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF979A7-D878-4AF0-821F-2A704BA93C6C}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16.8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <f>SUM(B2:B5)</f>
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <f>SUM(E2:E5)</f>
+        <v>75</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3">
+        <f>SUM(H2:H5)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>SUM(B8:B15)</f>
+        <v>60</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(E8:E15)</f>
+        <v>75</v>
+      </c>
+      <c r="H16" s="1">
+        <f>SUM(H8:H15)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8">
+        <v>8</v>
+      </c>
+      <c r="C26" s="8">
+        <v>8</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1">
+        <v>12</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="4">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="8">
+        <v>6</v>
+      </c>
+      <c r="C37" s="9">
+        <v>4.43</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="8">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8">
+        <v>8</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="8">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8">
+        <v>5</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="C40" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Raw Data.xlsx
+++ b/Raw Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive - University of Nottingham Malaysia\The University of Nottingham\BC COP26 Trilateral Research Initiative\BCCOP26TrilateralProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://numcmy-my.sharepoint.com/personal/ebxps1_nottingham_edu_my/Documents/.tmp.drivedownload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD358DB1-D024-4DFC-A7DE-680B6F2C694D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{DD358DB1-D024-4DFC-A7DE-680B6F2C694D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{729DD6C3-2519-402D-A67E-E7881F66F63C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{6BC639D9-110C-4E54-A662-BDDB0F5A7A64}"/>
+    <workbookView minimized="1" xWindow="4020" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{6BC639D9-110C-4E54-A662-BDDB0F5A7A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Period 1" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +243,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,10 +258,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -920,7 +923,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,21 +932,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -952,18 +955,27 @@
       <c r="B2" s="1">
         <v>18</v>
       </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1">
         <v>30</v>
       </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>40</v>
       </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -972,17 +984,26 @@
       <c r="B3" s="1">
         <v>19.2</v>
       </c>
+      <c r="C3" s="1">
+        <v>0.5</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1">
         <v>40</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -992,18 +1013,27 @@
       <c r="B4" s="1">
         <v>6</v>
       </c>
+      <c r="C4" s="1">
+        <v>0.8</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
       </c>
+      <c r="F4" s="1">
+        <v>0.8</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>5</v>
       </c>
+      <c r="I4" s="1">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1012,17 +1042,26 @@
       <c r="B5" s="1">
         <v>16.8</v>
       </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1033,6 +1072,10 @@
         <f>SUM(B2:B5)</f>
         <v>60</v>
       </c>
+      <c r="C6" s="3">
+        <f>(B2*C2)+(B3*C3)+(B4*C4)+(B5*C5)</f>
+        <v>31.200000000000003</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1040,12 +1083,20 @@
         <f>SUM(E2:E5)</f>
         <v>75</v>
       </c>
+      <c r="F6" s="10">
+        <f>(E2*F2)+(E3*F3)+(E4*F4)+(E5*F5)</f>
+        <v>29</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="3">
         <f>SUM(H2:H5)</f>
         <v>90</v>
+      </c>
+      <c r="I6" s="10">
+        <f>(H2*I2)+(H3*I3)+(H4*I4)+(H5*I5)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1347,58 +1398,58 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="5">
         <v>6</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>0.53</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="5">
         <v>8</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>8</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="8">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8">
-        <v>5</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="B27" s="5">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="5">
         <v>3.8</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <v>3.8</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1472,58 +1523,58 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="5">
         <v>6</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6">
         <v>4.43</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="5">
         <v>8</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="5">
         <v>8</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="8">
-        <v>5</v>
-      </c>
-      <c r="C39" s="8">
-        <v>5</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="B39" s="5">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="5">
         <v>3.8</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="5">
         <v>3.8</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="6" t="s">
         <v>3</v>
       </c>
     </row>
